--- a/static/others/login.xlsx
+++ b/static/others/login.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roberthsu/Documents/GitHub/__web2/static/others/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Render\web2\static\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973ADB62-30A2-3646-9C42-1929359F156B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="800" windowWidth="19720" windowHeight="14920" xr2:uid="{290A83FB-7181-B64E-A942-D9232862054E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -62,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -435,20 +434,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA16C92-CC26-EB43-9190-A58A0A808D55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="215" zoomScaleNormal="215" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -464,7 +463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -475,9 +474,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{4EB90D5A-F972-6643-A6A4-9497B0A2D979}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{D65D29C1-9C9C-6B40-8C8C-8A94D90A8D56}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{F09BE949-B86E-694F-9924-DE81B6B8CDC2}"/>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
